--- a/biology/Médecine/Diabète_de_type_MODY/Diabète_de_type_MODY.xlsx
+++ b/biology/Médecine/Diabète_de_type_MODY/Diabète_de_type_MODY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
+          <t>Diabète_de_type_MODY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diabète de type MODY[1] fait référence à l'une des formes héréditaires de diabète sucré causées par des mutations dans un gène autosomique dominant[2] perturbant la production d'insuline. Ce diabète est également appelé diabète monogénique[3],[4] pour le distinguer des types de diabète les plus courants (en particulier de type 1 et de type 2), qui impliquent des combinaisons plus complexes de causes impliquant plusieurs gènes et facteurs environnementaux. Plus de 40 gènes différents ont été identifiés comme conférant un diabète de ce type lorsqu'ils sont altérés.
-Robert Tattersall et Stefan Fajans ont initialement identifié le phénomène connu sous le nom de — maturity-onset diabetes of the young — dans une étude classique publiée dans la revue Diabetes en 1975[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diabète de type MODY fait référence à l'une des formes héréditaires de diabète sucré causées par des mutations dans un gène autosomique dominant perturbant la production d'insuline. Ce diabète est également appelé diabète monogénique, pour le distinguer des types de diabète les plus courants (en particulier de type 1 et de type 2), qui impliquent des combinaisons plus complexes de causes impliquant plusieurs gènes et facteurs environnementaux. Plus de 40 gènes différents ont été identifiés comme conférant un diabète de ce type lorsqu'ils sont altérés.
+Robert Tattersall et Stefan Fajans ont initialement identifié le phénomène connu sous le nom de — maturity-onset diabetes of the young — dans une étude classique publiée dans la revue Diabetes en 1975.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
+          <t>Diabète_de_type_MODY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un diabète de type MODY est le diagnostic final pour 1 à 2 % des personnes initialement diagnostiquées pour un diabète. La prévalence est de 70 à 110 par million de personnes. 50 % des parents au premier degré hériteront de la même mutation, ce qui leur donne un risque à vie supérieur à 95 % de développer ce diabète eux-mêmes. Généralement, les patients présentent de forts antécédents familiaux de diabète (tout type) et l'apparition des symptômes se situe entre la deuxième et la cinquième décennie.
 Il existe deux types généraux de tableaux cliniques.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
+          <t>Diabète_de_type_MODY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +564,85 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines sources distinguent deux formes de diabète monogénétique : le type MODY et le diabète néonatal[6]. Cependant, ils ont beaucoup en commun et sont souvent étudiés ensemble.
-Hétérozygotie
-Le diabète de type MODY est hérité de manière autosomique dominante, et la plupart des patients ont donc d'autres membres de la famille atteints de ce diabète ; la pénétrance diffère selon les types (de 40 % à 90 %).
-Homozygotie
-Par définition, les formes de diabète de type MODY sont autosomiques dominantes, et ne nécessitent qu'un seul gène anormal pour produire la maladie ; la gravité de la maladie est modérée par la présence d'un deuxième allèle normal qui fonctionne vraisemblablement normalement. Cependant, des situations impliquant des personnes portant deux allèles anormaux ont été identifiées[27]. Les défauts combinés (homozygotes) de ces gènes sont beaucoup plus rares et beaucoup plus graves dans leurs effets.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines sources distinguent deux formes de diabète monogénétique : le type MODY et le diabète néonatal. Cependant, ils ont beaucoup en commun et sont souvent étudiés ensemble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hétérozygotie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diabète de type MODY est hérité de manière autosomique dominante, et la plupart des patients ont donc d'autres membres de la famille atteints de ce diabète ; la pénétrance diffère selon les types (de 40 % à 90 %).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Homozygotie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par définition, les formes de diabète de type MODY sont autosomiques dominantes, et ne nécessitent qu'un seul gène anormal pour produire la maladie ; la gravité de la maladie est modérée par la présence d'un deuxième allèle normal qui fonctionne vraisemblablement normalement. Cependant, des situations impliquant des personnes portant deux allèles anormaux ont été identifiées. Les défauts combinés (homozygotes) de ces gènes sont beaucoup plus rares et beaucoup plus graves dans leurs effets.
 MODY2 : Le déficit homozygote en glucokinase provoque un déficit congénital sévère en insuline entraînant un diabète sucré néonatal persistant. Environ 6 cas ont été signalés dans le monde. Tous ont eu besoin d'un traitement à l'insuline peu de temps après la naissance. La condition ne semble pas s'améliorer avec l'âge.
 MODY4 : L'IPF1 homozygote mutant entraîne l'échec de la formation du pancréas. L'absence congénitale du pancréas, appelée agénésie pancréatique, implique une déficience des fonctions endocrines et exocrines du pancréas.
 Des mutations homozygotes dans les autres formes n'ont pas encore été décrites. Les mutations pour lesquelles une forme homozygote n'a pas été décrite peuvent être extrêmement rares, peuvent entraîner des problèmes cliniques non encore reconnus comme étant liés à la maladie monogénique, ou peuvent être mortelles pour un fœtus et ne pas aboutir à un enfant viable.
@@ -564,135 +650,143 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes reconnues de MODY sont toutes dues à une production ou à une libération inefficace d'insuline par les cellules bêta pancréatiques. Plusieurs de ces défauts sont des mutations des gènes des facteurs de transcription. Une forme est due à des mutations du gène de la glucokinase. Pour chaque forme de ce diabète, plusieurs mutations spécifiques impliquant différentes substitutions d'acides aminés ont été découvertes. Dans certains cas, il existe des différences significatives dans l'activité du produit du gène mutant qui contribuent aux variations des caractéristiques cliniques du diabète (telles que le degré de carence en insuline ou l'âge d'apparition).[réf. nécessaire]
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les caractéristiques suivantes suggèrent la possibilité d'un diagnostic de MODY chez les patients hyperglycémiques et diabétiques[28] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caractéristiques suivantes suggèrent la possibilité d'un diagnostic de MODY chez les patients hyperglycémiques et diabétiques :
 Hyperglycémie légère à modérée (généralement 130 à 250 mg/dl, ou 7–14 mmol/l) découverte avant 30 ans. Cependant, toute personne de moins de 50 ans peut développer un diabète MODY.
 Un parent au premier degré avec un degré similaire de diabète.
-Absence d'anticorps positifs ou d'autre auto-immunité (par exemple, thyroïdite) chez le patient et sa famille. Cependant, Urbanova et al. ont constaté qu'environ un quart des patients MODY d'Europe centrale sont positifs pour les auto-anticorps des cellules insulaires (GABA et IA2A). Leur expression est transitoire mais très répandue. Les auto-anticorps ont été trouvés chez des patients présentant un diabète d'apparition retardée et en période de contrôle insuffisant du diabète. Les auto-anticorps des cellules des îlots sont absents de ces diabètes dans au moins certaines populations (japonais, britanniques)[29].
+Absence d'anticorps positifs ou d'autre auto-immunité (par exemple, thyroïdite) chez le patient et sa famille. Cependant, Urbanova et al. ont constaté qu'environ un quart des patients MODY d'Europe centrale sont positifs pour les auto-anticorps des cellules insulaires (GABA et IA2A). Leur expression est transitoire mais très répandue. Les auto-anticorps ont été trouvés chez des patients présentant un diabète d'apparition retardée et en période de contrôle insuffisant du diabète. Les auto-anticorps des cellules des îlots sont absents de ces diabètes dans au moins certaines populations (japonais, britanniques).
 Persistance d'un faible besoin en insuline (p. ex., moins de 0,5 u/kg/jour) au-delà de la période habituelle de « lune de miel ».
 Absence d'obésité (bien que les personnes en surpoids ou obèses puissent contracter un diabète MODY) ou d'autres problèmes associés au diabète de type 2 ou au syndrome métabolique (par exemple, hypertension, hyperlipidémie, syndrome des ovaires polykystiques).
 La résistance à l'insuline se produit très rarement.
 Maladie rénale kystique chez le patient ou ses proches.
 Diabète néonatal non transitoire ou diabète apparent de type 1 survenant avant l'âge de six mois.
-Adénome hépatique ou carcinome hépatocellulaire dans MODY type 3[30]
+Adénome hépatique ou carcinome hépatocellulaire dans MODY type 3
 Kystes rénaux, utérus rudimentaire ou bicorne, aplasie vaginale, absence de canal déférent, kystes épidymaires pour les type 5
 Le diagnostic de diabète de type MODY est confirmé par des tests génétiques spécifiques disponibles dans des laboratoires commerciaux.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Classement[31]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Formes courantes ou bien établies de MODY (1 % de MODY ou plus) - HNF1A-(MODY3), HNF4A-(MODY1) et GCK-(MODY2), HNF1B-(MODY5), ABCC8-(MODY12), KCNJ11-( MODY13), INS-(MODY10) Formes rares de MODY (peu de familles décrites mais preuves génériques raisonnables pour causer MODY - NEUROD1-(MODY6), IPF1/PDX1-(MODY4), CEL-(MODY8), WSF1 et RFX6 Gènes rapportés comme causaux pour MODY mais preuves non convaincantes - BLK-(MODY11), PAX4-(MODY9) et KLF11-(MODY7), APPL1-(MODY14), NKX6-1
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines formes de MODY, un traitement standard est approprié, bien que des exceptions se produisent :
 Dans MODY2, les agents oraux sont relativement inefficaces, mais la plupart des patients sont gérés de manière conservatrice par le régime alimentaire et l'exercice.
@@ -705,68 +799,107 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les données de Saxe, en Allemagne, les diabètes MODY étaient responsable de 2,4 % de l'incidence du diabète chez les enfants de moins de 15 ans[32]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les données de Saxe, en Allemagne, les diabètes MODY étaient responsable de 2,4 % de l'incidence du diabète chez les enfants de moins de 15 ans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme MODY remonte à 1964, lorsque le diabète sucré était considéré comme ayant deux formes principales : juvénile et mature, ce qui correspondait à peu près à ce que nous appelons maintenant le type 1 et le type 2. MODY a été appliqué à l'origine à tout enfant ou jeune adulte qui présentait une hyperglycémie asymptomatique persistante sans progression vers une cétose diabétique ou une acidocétose. Rétrospectivement, nous pouvons maintenant reconnaître que cette catégorie recouvrait un ensemble hétérogène de troubles qui comprenait des cas de diabète héréditaire dominant (le sujet de cet article, encore appelé MODY aujourd'hui), ainsi que des cas de ce que nous appellerions maintenant le diabète de type 2 survenant dans l'enfance ou l'adolescence, et quelques types d'hyperglycémie encore plus rares (par exemple, le diabète mitochondrial ou l'insuline mutante). Beaucoup de ces patients ont été traités avec des sulfonylurées avec plus ou moins de succès.[réf. nécessaire]
-L'usage actuel du terme MODY date d'un rapport de cas publié en 1974[33],[34].
-Depuis les années 1990, à mesure que la compréhension de la physiopathologie du diabète s'est améliorée, le concept et l'utilisation de MODY se sont affinés et restreints. Il est maintenant utilisé comme synonyme de défauts monogéniques héréditaires dominants de la sécrétion d'insuline survenant à tout âge, et n'inclut plus aucune forme de diabète de type 2[35].
-Divers
-MODY ne doit pas être confondu avec le diabète auto-immun latent de l'adulte (LADA) — une forme de diabète de type 1, avec une progression plus lente vers la dépendance à l'insuline que le diabète de type 1 chez l'enfant, et qui survient plus tard dans la vie.
+L'usage actuel du terme MODY date d'un rapport de cas publié en 1974,.
+Depuis les années 1990, à mesure que la compréhension de la physiopathologie du diabète s'est améliorée, le concept et l'utilisation de MODY se sont affinés et restreints. Il est maintenant utilisé comme synonyme de défauts monogéniques héréditaires dominants de la sécrétion d'insuline survenant à tout âge, et n'inclut plus aucune forme de diabète de type 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diabète_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_de_type_MODY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MODY ne doit pas être confondu avec le diabète auto-immun latent de l'adulte (LADA) — une forme de diabète de type 1, avec une progression plus lente vers la dépendance à l'insuline que le diabète de type 1 chez l'enfant, et qui survient plus tard dans la vie.
 </t>
         </is>
       </c>
